--- a/Asta2018.xlsx
+++ b/Asta2018.xlsx
@@ -12,9 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
   <si>
     <t>Bucalina</t>
+  </si>
+  <si>
+    <t>Sq.</t>
+  </si>
+  <si>
+    <t>Pr.</t>
   </si>
   <si>
     <t>Ciolle United</t>
@@ -1503,11 +1509,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="18"/>
+      <color indexed="26"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1559,6 +1565,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1788,349 +1842,349 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2153,8 +2207,16 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffcbfff7"/>
+      <rgbColor rgb="ffbfbfbf"/>
+      <rgbColor rgb="ffbcffc8"/>
+      <rgbColor rgb="ffe8ffac"/>
+      <rgbColor rgb="fffff4a0"/>
+      <rgbColor rgb="ffffde9e"/>
+      <rgbColor rgb="ffffbe9d"/>
+      <rgbColor rgb="ffffbcd6"/>
+      <rgbColor rgb="ffdbc7ff"/>
       <rgbColor rgb="ff99fff0"/>
-      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="ff78ff91"/>
       <rgbColor rgb="ffd2ff59"/>
       <rgbColor rgb="ffffeb43"/>
@@ -3228,7 +3290,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="4.17188" style="1" customWidth="1"/>
@@ -3236,11 +3298,11 @@
     <col min="5" max="6" width="4.17188" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.6719" style="1" customWidth="1"/>
     <col min="8" max="9" width="4.17188" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1016" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1719" style="1" customWidth="1"/>
     <col min="11" max="12" width="4.17188" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.6719" style="1" customWidth="1"/>
     <col min="14" max="15" width="4.17188" style="1" customWidth="1"/>
-    <col min="16" max="16" width="22.4219" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="1" customWidth="1"/>
     <col min="17" max="18" width="4.17188" style="1" customWidth="1"/>
     <col min="19" max="19" width="10.3516" style="1" customWidth="1"/>
     <col min="20" max="21" width="4.17188" style="1" customWidth="1"/>
@@ -3253,113 +3315,145 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="4">
+        <v>2</v>
+      </c>
       <c r="D1" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
+      <c r="F1" t="s" s="7">
+        <v>2</v>
+      </c>
       <c r="G1" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s" s="9">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
       <c r="J1" t="s" s="11">
-        <v>3</v>
-      </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="K1" t="s" s="12">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s" s="13">
+        <v>2</v>
+      </c>
       <c r="M1" t="s" s="14">
-        <v>4</v>
-      </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="N1" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s" s="16">
+        <v>2</v>
+      </c>
       <c r="P1" t="s" s="17">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s" s="18">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s" s="19">
+        <v>2</v>
+      </c>
       <c r="S1" t="s" s="20">
-        <v>6</v>
-      </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="T1" t="s" s="21">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s" s="22">
+        <v>2</v>
+      </c>
       <c r="V1" t="s" s="23">
-        <v>7</v>
-      </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25"/>
+        <v>9</v>
+      </c>
+      <c r="W1" t="s" s="24">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="15.1" customHeight="1">
       <c r="A2" t="s" s="26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="28">
         <v>366</v>
       </c>
       <c r="D2" t="s" s="29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s" s="30">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="31">
         <v>167</v>
       </c>
       <c r="G2" t="s" s="32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s" s="33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" s="34">
         <v>206</v>
       </c>
       <c r="J2" t="s" s="35">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s" s="36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L2" s="37">
         <v>180</v>
       </c>
       <c r="M2" t="s" s="38">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s" s="39">
         <v>15</v>
-      </c>
-      <c r="N2" t="s" s="39">
-        <v>13</v>
       </c>
       <c r="O2" s="40">
         <v>395</v>
       </c>
       <c r="P2" t="s" s="41">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s" s="42">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R2" s="43">
         <v>331</v>
       </c>
       <c r="S2" t="s" s="44">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="45">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U2" s="46">
         <v>123</v>
       </c>
       <c r="V2" t="s" s="47">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s" s="48">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X2" s="49">
         <v>117</v>
@@ -3367,73 +3461,73 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="50">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="51">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="52">
         <v>271</v>
       </c>
       <c r="D3" t="s" s="53">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s" s="54">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="55">
         <v>195</v>
       </c>
       <c r="G3" t="s" s="56">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s" s="57">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" s="58">
         <v>150</v>
       </c>
       <c r="J3" t="s" s="59">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s" s="60">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" s="61">
         <v>183</v>
       </c>
       <c r="M3" t="s" s="62">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s" s="63">
         <v>27</v>
-      </c>
-      <c r="N3" t="s" s="63">
-        <v>25</v>
       </c>
       <c r="O3" s="64">
         <v>57</v>
       </c>
       <c r="P3" t="s" s="65">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s" s="66">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R3" s="67">
         <v>150</v>
       </c>
       <c r="S3" t="s" s="68">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T3" t="s" s="69">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U3" s="70">
         <v>331</v>
       </c>
       <c r="V3" t="s" s="71">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s" s="72">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X3" s="73">
         <v>383</v>
@@ -3441,73 +3535,73 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" t="s" s="50">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="51">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="52">
         <v>42</v>
       </c>
       <c r="D4" t="s" s="53">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s" s="54">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="55">
         <v>90</v>
       </c>
       <c r="G4" t="s" s="56">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s" s="57">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I4" s="58">
         <v>76</v>
       </c>
       <c r="J4" t="s" s="59">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s" s="60">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" s="61">
         <v>96</v>
       </c>
       <c r="M4" t="s" s="62">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s" s="63">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O4" s="64">
         <v>80</v>
       </c>
       <c r="P4" t="s" s="65">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="s" s="66">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R4" s="67">
         <v>45</v>
       </c>
       <c r="S4" t="s" s="68">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s" s="69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U4" s="70">
         <v>137</v>
       </c>
       <c r="V4" t="s" s="71">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W4" t="s" s="72">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X4" s="73">
         <v>60</v>
@@ -3515,73 +3609,73 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s" s="50">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="51">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="52">
         <v>60</v>
       </c>
       <c r="D5" t="s" s="53">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s" s="54">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="55">
         <v>55</v>
       </c>
       <c r="G5" t="s" s="56">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" s="58">
         <v>31</v>
       </c>
       <c r="J5" t="s" s="59">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s" s="60">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" s="61">
         <v>61</v>
       </c>
       <c r="M5" t="s" s="62">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s" s="63">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O5" s="64">
         <v>63</v>
       </c>
       <c r="P5" t="s" s="65">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q5" t="s" s="66">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R5" s="67">
         <v>25</v>
       </c>
       <c r="S5" t="s" s="68">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T5" t="s" s="69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U5" s="70">
         <v>36</v>
       </c>
       <c r="V5" t="s" s="71">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W5" t="s" s="72">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X5" s="73">
         <v>68</v>
@@ -3589,73 +3683,73 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s" s="50">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s" s="51">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="52">
         <v>27</v>
       </c>
       <c r="D6" t="s" s="53">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s" s="54">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6" s="55">
         <v>65</v>
       </c>
       <c r="G6" t="s" s="56">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s" s="57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" s="58">
         <v>78</v>
       </c>
       <c r="J6" t="s" s="59">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s" s="60">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="61">
         <v>47</v>
       </c>
       <c r="M6" t="s" s="62">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s" s="63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O6" s="64">
         <v>51</v>
       </c>
       <c r="P6" t="s" s="65">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q6" t="s" s="66">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R6" s="67">
         <v>29</v>
       </c>
       <c r="S6" t="s" s="68">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s" s="69">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U6" s="70">
         <v>33</v>
       </c>
       <c r="V6" t="s" s="71">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s" s="72">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X6" s="73">
         <v>16</v>
@@ -3663,73 +3757,73 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s" s="50">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s" s="51">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="52">
         <v>20</v>
       </c>
       <c r="D7" t="s" s="53">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s" s="54">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="55">
         <v>45</v>
       </c>
       <c r="G7" t="s" s="56">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s" s="57">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I7" s="58">
         <v>71</v>
       </c>
       <c r="J7" t="s" s="59">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K7" t="s" s="60">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" s="61">
         <v>18</v>
       </c>
       <c r="M7" t="s" s="62">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N7" t="s" s="63">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O7" s="64">
         <v>61</v>
       </c>
       <c r="P7" t="s" s="65">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q7" t="s" s="66">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R7" s="67">
         <v>30</v>
       </c>
       <c r="S7" t="s" s="68">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T7" t="s" s="69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U7" s="70">
         <v>31</v>
       </c>
       <c r="V7" t="s" s="71">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="W7" t="s" s="72">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X7" s="73">
         <v>20</v>
@@ -3737,73 +3831,73 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s" s="50">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s" s="51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="52">
         <v>16</v>
       </c>
       <c r="D8" t="s" s="53">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s" s="54">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8" s="55">
         <v>32</v>
       </c>
       <c r="G8" t="s" s="56">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s" s="57">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I8" s="58">
         <v>66</v>
       </c>
       <c r="J8" t="s" s="59">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="60">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L8" s="61">
         <v>35</v>
       </c>
       <c r="M8" t="s" s="62">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s" s="63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" s="64">
         <v>29</v>
       </c>
       <c r="P8" t="s" s="65">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q8" t="s" s="66">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R8" s="67">
         <v>43</v>
       </c>
       <c r="S8" t="s" s="68">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="69">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U8" s="70">
         <v>19</v>
       </c>
       <c r="V8" t="s" s="71">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="72">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X8" s="73">
         <v>29</v>
@@ -3811,73 +3905,73 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s" s="50">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s" s="51">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="52">
         <v>11</v>
       </c>
       <c r="D9" t="s" s="53">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s" s="54">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="55">
         <v>21</v>
       </c>
       <c r="G9" t="s" s="56">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="57">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I9" s="58">
         <v>56</v>
       </c>
       <c r="J9" t="s" s="59">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s" s="60">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L9" s="61">
         <v>28</v>
       </c>
       <c r="M9" t="s" s="62">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N9" t="s" s="63">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O9" s="64">
         <v>15</v>
       </c>
       <c r="P9" t="s" s="65">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q9" t="s" s="66">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R9" s="67">
         <v>22</v>
       </c>
       <c r="S9" t="s" s="68">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T9" t="s" s="69">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U9" s="70">
         <v>3</v>
       </c>
       <c r="V9" t="s" s="71">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W9" t="s" s="72">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X9" s="73">
         <v>19</v>
@@ -3885,73 +3979,73 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s" s="50">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s" s="51">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" s="52">
         <v>4</v>
       </c>
       <c r="D10" t="s" s="53">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s" s="54">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F10" s="55">
         <v>1</v>
       </c>
       <c r="G10" t="s" s="56">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="57">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I10" s="58">
         <v>13</v>
       </c>
       <c r="J10" t="s" s="59">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s" s="60">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L10" s="61">
         <v>30</v>
       </c>
       <c r="M10" t="s" s="62">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N10" t="s" s="63">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O10" s="64">
         <v>15</v>
       </c>
       <c r="P10" t="s" s="65">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q10" t="s" s="66">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R10" s="67">
         <v>22</v>
       </c>
       <c r="S10" t="s" s="68">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T10" t="s" s="69">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U10" s="70">
         <v>16</v>
       </c>
       <c r="V10" t="s" s="71">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="W10" t="s" s="72">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X10" s="73">
         <v>17</v>
@@ -3959,73 +4053,73 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s" s="50">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s" s="51">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="52">
         <v>11</v>
       </c>
       <c r="D11" t="s" s="53">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s" s="54">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" s="55">
         <v>1</v>
       </c>
       <c r="G11" t="s" s="56">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s" s="57">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I11" s="58">
         <v>15</v>
       </c>
       <c r="J11" t="s" s="59">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s" s="60">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L11" s="61">
         <v>30</v>
       </c>
       <c r="M11" t="s" s="62">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N11" t="s" s="63">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O11" s="64">
         <v>12</v>
       </c>
       <c r="P11" t="s" s="65">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q11" t="s" s="66">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R11" s="67">
         <v>27</v>
       </c>
       <c r="S11" t="s" s="68">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T11" t="s" s="69">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U11" s="70">
         <v>25</v>
       </c>
       <c r="V11" t="s" s="71">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W11" t="s" s="72">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X11" s="73">
         <v>1</v>
@@ -4033,73 +4127,73 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s" s="50">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s" s="51">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="52">
         <v>17</v>
       </c>
       <c r="D12" t="s" s="53">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s" s="54">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="55">
         <v>44</v>
       </c>
       <c r="G12" t="s" s="56">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s" s="57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I12" s="58">
         <v>23</v>
       </c>
       <c r="J12" t="s" s="59">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s" s="60">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="61">
         <v>5</v>
       </c>
       <c r="M12" t="s" s="62">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N12" t="s" s="63">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O12" s="64">
         <v>7</v>
       </c>
       <c r="P12" t="s" s="65">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q12" t="s" s="66">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R12" s="67">
         <v>16</v>
       </c>
       <c r="S12" t="s" s="68">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T12" t="s" s="69">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U12" s="70">
         <v>15</v>
       </c>
       <c r="V12" t="s" s="71">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W12" t="s" s="72">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X12" s="73">
         <v>1</v>
@@ -4107,73 +4201,73 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" t="s" s="50">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s" s="51">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="52">
         <v>16</v>
       </c>
       <c r="D13" t="s" s="53">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s" s="54">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" s="55">
         <v>26</v>
       </c>
       <c r="G13" t="s" s="56">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H13" t="s" s="57">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I13" s="58">
         <v>19</v>
       </c>
       <c r="J13" t="s" s="59">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s" s="60">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L13" s="61">
         <v>10</v>
       </c>
       <c r="M13" t="s" s="62">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N13" t="s" s="63">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O13" s="64">
         <v>20</v>
       </c>
       <c r="P13" t="s" s="65">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q13" t="s" s="66">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R13" s="67">
         <v>40</v>
       </c>
       <c r="S13" t="s" s="68">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="T13" t="s" s="69">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U13" s="70">
         <v>15</v>
       </c>
       <c r="V13" t="s" s="71">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="W13" t="s" s="72">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="X13" s="73">
         <v>12</v>
@@ -4181,73 +4275,73 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s" s="50">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s" s="51">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="52">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="53">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s" s="54">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="55">
         <v>10</v>
       </c>
       <c r="G14" t="s" s="56">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s" s="57">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I14" s="58">
         <v>9</v>
       </c>
       <c r="J14" t="s" s="59">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="60">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L14" s="61">
         <v>36</v>
       </c>
       <c r="M14" t="s" s="62">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N14" t="s" s="63">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O14" s="64">
         <v>12</v>
       </c>
       <c r="P14" t="s" s="65">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14" t="s" s="66">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R14" s="67">
         <v>20</v>
       </c>
       <c r="S14" t="s" s="68">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="T14" t="s" s="69">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="U14" s="70">
         <v>11</v>
       </c>
       <c r="V14" t="s" s="71">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="W14" t="s" s="72">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X14" s="73">
         <v>12</v>
@@ -4255,73 +4349,73 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s" s="50">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s" s="51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="52">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="53">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s" s="54">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" s="55">
         <v>13</v>
       </c>
       <c r="G15" t="s" s="56">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s" s="57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I15" s="58">
         <v>19</v>
       </c>
       <c r="J15" t="s" s="59">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s" s="60">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="61">
         <v>20</v>
       </c>
       <c r="M15" t="s" s="62">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s" s="63">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O15" s="64">
         <v>10</v>
       </c>
       <c r="P15" t="s" s="65">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q15" t="s" s="66">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R15" s="67">
         <v>16</v>
       </c>
       <c r="S15" t="s" s="68">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T15" t="s" s="69">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U15" s="70">
         <v>33</v>
       </c>
       <c r="V15" t="s" s="71">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="W15" t="s" s="72">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X15" s="73">
         <v>5</v>
@@ -4329,73 +4423,73 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s" s="50">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="51">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C16" s="52">
         <v>13</v>
       </c>
       <c r="D16" t="s" s="53">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s" s="54">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16" s="55">
         <v>16</v>
       </c>
       <c r="G16" t="s" s="56">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H16" t="s" s="57">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I16" s="58">
         <v>24</v>
       </c>
       <c r="J16" t="s" s="59">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s" s="60">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="61">
         <v>25</v>
       </c>
       <c r="M16" t="s" s="62">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N16" t="s" s="63">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O16" s="64">
         <v>20</v>
       </c>
       <c r="P16" t="s" s="65">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q16" t="s" s="66">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R16" s="67">
         <v>27</v>
       </c>
       <c r="S16" t="s" s="68">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="T16" t="s" s="69">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U16" s="70">
         <v>10</v>
       </c>
       <c r="V16" t="s" s="71">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="W16" t="s" s="72">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="X16" s="73">
         <v>12</v>
@@ -4403,73 +4497,73 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" t="s" s="50">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="52">
         <v>7</v>
       </c>
       <c r="D17" t="s" s="53">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s" s="54">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F17" s="55">
         <v>23</v>
       </c>
       <c r="G17" t="s" s="56">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H17" t="s" s="57">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I17" s="58">
         <v>20</v>
       </c>
       <c r="J17" t="s" s="59">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s" s="60">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="61">
         <v>17</v>
       </c>
       <c r="M17" t="s" s="62">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N17" t="s" s="63">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O17" s="64">
         <v>15</v>
       </c>
       <c r="P17" t="s" s="65">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q17" t="s" s="66">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R17" s="67">
         <v>25</v>
       </c>
       <c r="S17" t="s" s="68">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="T17" t="s" s="69">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U17" s="70">
         <v>37</v>
       </c>
       <c r="V17" t="s" s="71">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="W17" t="s" s="72">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X17" s="73">
         <v>10</v>
@@ -4477,73 +4571,73 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" t="s" s="50">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="51">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C18" s="52">
         <v>6</v>
       </c>
       <c r="D18" t="s" s="53">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E18" t="s" s="54">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F18" s="55">
         <v>20</v>
       </c>
       <c r="G18" t="s" s="56">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H18" t="s" s="57">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I18" s="58">
         <v>15</v>
       </c>
       <c r="J18" t="s" s="59">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s" s="60">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L18" s="61">
         <v>16</v>
       </c>
       <c r="M18" t="s" s="62">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="63">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O18" s="64">
         <v>19</v>
       </c>
       <c r="P18" t="s" s="65">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q18" t="s" s="66">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R18" s="67">
         <v>26</v>
       </c>
       <c r="S18" t="s" s="68">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T18" t="s" s="69">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U18" s="70">
         <v>23</v>
       </c>
       <c r="V18" t="s" s="71">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="W18" t="s" s="72">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X18" s="73">
         <v>20</v>
@@ -4551,73 +4645,73 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" t="s" s="50">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s" s="51">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="52">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="53">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s" s="54">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F19" s="55">
         <v>30</v>
       </c>
       <c r="G19" t="s" s="56">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H19" t="s" s="57">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I19" s="58">
         <v>14</v>
       </c>
       <c r="J19" t="s" s="59">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s" s="60">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L19" s="61">
         <v>20</v>
       </c>
       <c r="M19" t="s" s="62">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N19" t="s" s="63">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O19" s="64">
         <v>7</v>
       </c>
       <c r="P19" t="s" s="65">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q19" t="s" s="66">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R19" s="67">
         <v>19</v>
       </c>
       <c r="S19" t="s" s="68">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="T19" t="s" s="69">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U19" s="70">
         <v>6</v>
       </c>
       <c r="V19" t="s" s="71">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W19" t="s" s="72">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X19" s="73">
         <v>24</v>
@@ -4625,73 +4719,73 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" t="s" s="50">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="51">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C20" s="52">
         <v>20</v>
       </c>
       <c r="D20" t="s" s="53">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s" s="54">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F20" s="55">
         <v>17</v>
       </c>
       <c r="G20" t="s" s="56">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H20" t="s" s="57">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I20" s="58">
         <v>23</v>
       </c>
       <c r="J20" t="s" s="59">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s" s="60">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L20" s="61">
         <v>11</v>
       </c>
       <c r="M20" t="s" s="62">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N20" t="s" s="63">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O20" s="64">
         <v>11</v>
       </c>
       <c r="P20" t="s" s="65">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q20" t="s" s="66">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R20" s="67">
         <v>40</v>
       </c>
       <c r="S20" t="s" s="68">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="T20" t="s" s="69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U20" s="70">
         <v>10</v>
       </c>
       <c r="V20" t="s" s="71">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="W20" t="s" s="72">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X20" s="73">
         <v>16</v>
@@ -4699,73 +4793,73 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" t="s" s="50">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s" s="51">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C21" s="52">
         <v>22</v>
       </c>
       <c r="D21" t="s" s="53">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E21" t="s" s="54">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" s="55">
         <v>32</v>
       </c>
       <c r="G21" t="s" s="56">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H21" t="s" s="57">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I21" s="58">
         <v>20</v>
       </c>
       <c r="J21" t="s" s="59">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s" s="60">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L21" s="61">
         <v>50</v>
       </c>
       <c r="M21" t="s" s="62">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N21" t="s" s="63">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="64">
         <v>10</v>
       </c>
       <c r="P21" t="s" s="65">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q21" t="s" s="66">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R21" s="67">
         <v>1</v>
       </c>
       <c r="S21" t="s" s="68">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="T21" t="s" s="69">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U21" s="70">
         <v>14</v>
       </c>
       <c r="V21" t="s" s="71">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="W21" t="s" s="72">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X21" s="73">
         <v>10</v>
@@ -4773,73 +4867,73 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" t="s" s="50">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="51">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" s="52">
         <v>10</v>
       </c>
       <c r="D22" t="s" s="53">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s" s="54">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" s="55">
         <v>14</v>
       </c>
       <c r="G22" t="s" s="56">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H22" t="s" s="57">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I22" s="58">
         <v>7</v>
       </c>
       <c r="J22" t="s" s="59">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s" s="60">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L22" s="61">
         <v>17</v>
       </c>
       <c r="M22" t="s" s="62">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N22" t="s" s="63">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O22" s="64">
         <v>18</v>
       </c>
       <c r="P22" t="s" s="65">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q22" t="s" s="66">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R22" s="67">
         <v>1</v>
       </c>
       <c r="S22" t="s" s="68">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="T22" t="s" s="69">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U22" s="70">
         <v>5</v>
       </c>
       <c r="V22" t="s" s="71">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W22" t="s" s="72">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X22" s="73">
         <v>10</v>
@@ -4847,73 +4941,73 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" t="s" s="50">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s" s="51">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" s="52">
         <v>1</v>
       </c>
       <c r="D23" t="s" s="53">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s" s="54">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F23" s="55">
         <v>32</v>
       </c>
       <c r="G23" t="s" s="56">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H23" t="s" s="57">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I23" s="58">
         <v>6</v>
       </c>
       <c r="J23" t="s" s="59">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s" s="60">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L23" s="61">
         <v>14</v>
       </c>
       <c r="M23" t="s" s="62">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N23" t="s" s="63">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O23" s="64">
         <v>1</v>
       </c>
       <c r="P23" t="s" s="65">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q23" t="s" s="66">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R23" s="67">
         <v>4</v>
       </c>
       <c r="S23" t="s" s="68">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="T23" t="s" s="69">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U23" s="70">
         <v>1</v>
       </c>
       <c r="V23" t="s" s="71">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="W23" t="s" s="72">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X23" s="73">
         <v>30</v>
@@ -4921,73 +5015,73 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" t="s" s="50">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="51">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C24" s="52">
         <v>7</v>
       </c>
       <c r="D24" t="s" s="53">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E24" t="s" s="54">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F24" s="55">
         <v>7</v>
       </c>
       <c r="G24" t="s" s="56">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H24" t="s" s="57">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I24" s="58">
         <v>1</v>
       </c>
       <c r="J24" t="s" s="59">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s" s="60">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L24" s="61">
         <v>10</v>
       </c>
       <c r="M24" t="s" s="62">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N24" t="s" s="63">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O24" s="64">
         <v>1</v>
       </c>
       <c r="P24" t="s" s="65">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q24" t="s" s="66">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R24" s="67">
         <v>8</v>
       </c>
       <c r="S24" t="s" s="68">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="T24" t="s" s="69">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U24" s="70">
         <v>26</v>
       </c>
       <c r="V24" t="s" s="71">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="W24" t="s" s="72">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X24" s="73">
         <v>23</v>
@@ -4995,73 +5089,73 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" t="s" s="50">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="51">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" s="52">
         <v>11</v>
       </c>
       <c r="D25" t="s" s="53">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s" s="54">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F25" s="55">
         <v>6</v>
       </c>
       <c r="G25" t="s" s="56">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H25" t="s" s="57">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I25" s="58">
         <v>14</v>
       </c>
       <c r="J25" t="s" s="59">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s" s="60">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L25" s="61">
         <v>1</v>
       </c>
       <c r="M25" t="s" s="62">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s" s="63">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O25" s="64">
         <v>7</v>
       </c>
       <c r="P25" t="s" s="65">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q25" t="s" s="66">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R25" s="67">
         <v>8</v>
       </c>
       <c r="S25" t="s" s="68">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="T25" t="s" s="69">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U25" s="70">
         <v>11</v>
       </c>
       <c r="V25" t="s" s="71">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="W25" t="s" s="72">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X25" s="73">
         <v>16</v>
@@ -5069,73 +5163,73 @@
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" t="s" s="50">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="51">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" s="52">
         <v>6</v>
       </c>
       <c r="D26" t="s" s="53">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E26" t="s" s="54">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F26" s="55">
         <v>9</v>
       </c>
       <c r="G26" t="s" s="56">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H26" t="s" s="57">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I26" s="58">
         <v>1</v>
       </c>
       <c r="J26" t="s" s="59">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s" s="60">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L26" s="61">
         <v>1</v>
       </c>
       <c r="M26" t="s" s="62">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N26" t="s" s="63">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O26" s="64">
         <v>28</v>
       </c>
       <c r="P26" t="s" s="65">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q26" t="s" s="66">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R26" s="67">
         <v>22</v>
       </c>
       <c r="S26" t="s" s="68">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="T26" t="s" s="69">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U26" s="70">
         <v>19</v>
       </c>
       <c r="V26" t="s" s="71">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W26" t="s" s="72">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="X26" s="73">
         <v>19</v>
@@ -5143,73 +5237,73 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" t="s" s="50">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s" s="51">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="52">
         <v>3</v>
       </c>
       <c r="D27" t="s" s="53">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s" s="54">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" s="55">
         <v>4</v>
       </c>
       <c r="G27" t="s" s="56">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H27" t="s" s="57">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I27" s="58">
         <v>5</v>
       </c>
       <c r="J27" t="s" s="59">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s" s="60">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L27" s="61">
         <v>8</v>
       </c>
       <c r="M27" t="s" s="62">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N27" t="s" s="63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O27" s="64">
         <v>19</v>
       </c>
       <c r="P27" t="s" s="65">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q27" t="s" s="66">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R27" s="67">
         <v>3</v>
       </c>
       <c r="S27" t="s" s="68">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="T27" t="s" s="69">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U27" s="70">
         <v>7</v>
       </c>
       <c r="V27" t="s" s="71">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="W27" t="s" s="72">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X27" s="73">
         <v>7</v>
@@ -5217,10 +5311,10 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" t="s" s="50">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="51">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" s="52">
         <v>8</v>
@@ -5229,28 +5323,28 @@
       <c r="E28" s="75"/>
       <c r="F28" s="76"/>
       <c r="G28" t="s" s="56">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H28" t="s" s="57">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I28" s="58">
         <v>13</v>
       </c>
       <c r="J28" t="s" s="59">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s" s="60">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L28" s="61">
         <v>9</v>
       </c>
       <c r="M28" t="s" s="62">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N28" t="s" s="63">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O28" s="64">
         <v>17</v>
@@ -5262,10 +5356,10 @@
       <c r="T28" s="81"/>
       <c r="U28" s="82"/>
       <c r="V28" t="s" s="71">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="W28" t="s" s="72">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X28" s="73">
         <v>6</v>
@@ -5279,19 +5373,19 @@
       <c r="E29" s="75"/>
       <c r="F29" s="76"/>
       <c r="G29" t="s" s="56">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H29" t="s" s="57">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I29" s="58">
         <v>5</v>
       </c>
       <c r="J29" t="s" s="59">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s" s="60">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L29" s="61">
         <v>5</v>
@@ -5306,10 +5400,10 @@
       <c r="T29" s="81"/>
       <c r="U29" s="82"/>
       <c r="V29" t="s" s="71">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="W29" t="s" s="72">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X29" s="73">
         <v>7</v>
@@ -5338,10 +5432,10 @@
       <c r="T30" s="81"/>
       <c r="U30" s="82"/>
       <c r="V30" t="s" s="71">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="W30" t="s" s="72">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X30" s="73">
         <v>10</v>
@@ -5370,10 +5464,10 @@
       <c r="T31" s="81"/>
       <c r="U31" s="82"/>
       <c r="V31" t="s" s="71">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="W31" t="s" s="72">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X31" s="73">
         <v>6</v>
@@ -5402,10 +5496,10 @@
       <c r="T32" s="81"/>
       <c r="U32" s="82"/>
       <c r="V32" t="s" s="71">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="W32" t="s" s="72">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X32" s="73">
         <v>12</v>
@@ -5552,21 +5646,21 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.9219" style="118" customWidth="1"/>
+    <col min="1" max="1" width="15" style="118" customWidth="1"/>
     <col min="2" max="3" width="4.17188" style="118" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="118" customWidth="1"/>
+    <col min="4" max="4" width="15.8516" style="118" customWidth="1"/>
     <col min="5" max="6" width="4.17188" style="118" customWidth="1"/>
-    <col min="7" max="7" width="14.6016" style="118" customWidth="1"/>
+    <col min="7" max="7" width="14.6719" style="118" customWidth="1"/>
     <col min="8" max="9" width="4.17188" style="118" customWidth="1"/>
-    <col min="10" max="10" width="17.1016" style="118" customWidth="1"/>
+    <col min="10" max="10" width="17.1719" style="118" customWidth="1"/>
     <col min="11" max="12" width="4.17188" style="118" customWidth="1"/>
-    <col min="13" max="13" width="18.25" style="118" customWidth="1"/>
+    <col min="13" max="13" width="18.3516" style="118" customWidth="1"/>
     <col min="14" max="15" width="4.17188" style="118" customWidth="1"/>
-    <col min="16" max="16" width="22.4219" style="118" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="118" customWidth="1"/>
     <col min="17" max="18" width="4.17188" style="118" customWidth="1"/>
-    <col min="19" max="19" width="12.4219" style="118" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="118" customWidth="1"/>
     <col min="20" max="21" width="4.17188" style="118" customWidth="1"/>
     <col min="22" max="22" width="11.6719" style="118" customWidth="1"/>
     <col min="23" max="24" width="4.17188" style="118" customWidth="1"/>
@@ -5577,113 +5671,145 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="4">
+        <v>2</v>
+      </c>
       <c r="D1" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
+      <c r="F1" t="s" s="7">
+        <v>2</v>
+      </c>
       <c r="G1" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s" s="9">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
       <c r="J1" t="s" s="11">
-        <v>3</v>
-      </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="K1" t="s" s="12">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s" s="13">
+        <v>2</v>
+      </c>
       <c r="M1" t="s" s="14">
-        <v>4</v>
-      </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="N1" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s" s="16">
+        <v>2</v>
+      </c>
       <c r="P1" t="s" s="17">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s" s="18">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s" s="19">
+        <v>2</v>
+      </c>
       <c r="S1" t="s" s="20">
-        <v>6</v>
-      </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="T1" t="s" s="21">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s" s="22">
+        <v>2</v>
+      </c>
       <c r="V1" t="s" s="23">
-        <v>7</v>
-      </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="25"/>
+        <v>9</v>
+      </c>
+      <c r="W1" t="s" s="24">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="15.1" customHeight="1">
       <c r="A2" t="s" s="26">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s" s="27">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C2" s="28">
         <v>366</v>
       </c>
       <c r="D2" t="s" s="29">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s" s="30">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F2" s="31">
         <v>167</v>
       </c>
       <c r="G2" t="s" s="32">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s" s="33">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I2" s="34">
         <v>206</v>
       </c>
       <c r="J2" t="s" s="35">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K2" t="s" s="36">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L2" s="37">
         <v>180</v>
       </c>
       <c r="M2" t="s" s="38">
+        <v>256</v>
+      </c>
+      <c r="N2" t="s" s="39">
         <v>254</v>
-      </c>
-      <c r="N2" t="s" s="39">
-        <v>252</v>
       </c>
       <c r="O2" s="40">
         <v>395</v>
       </c>
       <c r="P2" t="s" s="41">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q2" t="s" s="42">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R2" s="43">
         <v>331</v>
       </c>
       <c r="S2" t="s" s="44">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="T2" t="s" s="45">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="U2" s="46">
         <v>123</v>
       </c>
       <c r="V2" t="s" s="47">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="W2" t="s" s="48">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="X2" s="49">
         <v>117</v>
@@ -5691,73 +5817,73 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="50">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s" s="51">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C3" s="52">
         <v>271</v>
       </c>
       <c r="D3" t="s" s="53">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s" s="54">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F3" s="55">
         <v>195</v>
       </c>
       <c r="G3" t="s" s="56">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H3" t="s" s="57">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I3" s="58">
         <v>150</v>
       </c>
       <c r="J3" t="s" s="59">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K3" t="s" s="60">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L3" s="61">
         <v>183</v>
       </c>
       <c r="M3" t="s" s="62">
+        <v>268</v>
+      </c>
+      <c r="N3" t="s" s="63">
         <v>266</v>
-      </c>
-      <c r="N3" t="s" s="63">
-        <v>264</v>
       </c>
       <c r="O3" s="64">
         <v>57</v>
       </c>
       <c r="P3" t="s" s="65">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q3" t="s" s="66">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R3" s="67">
         <v>150</v>
       </c>
       <c r="S3" t="s" s="68">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="T3" t="s" s="69">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="U3" s="70">
         <v>331</v>
       </c>
       <c r="V3" t="s" s="71">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="W3" t="s" s="72">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="X3" s="73">
         <v>383</v>
@@ -5765,73 +5891,73 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" t="s" s="50">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s" s="51">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C4" s="52">
         <v>42</v>
       </c>
       <c r="D4" t="s" s="53">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s" s="54">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F4" s="55">
         <v>90</v>
       </c>
       <c r="G4" t="s" s="56">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H4" t="s" s="57">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I4" s="58">
         <v>76</v>
       </c>
       <c r="J4" t="s" s="59">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K4" t="s" s="60">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L4" s="61">
         <v>96</v>
       </c>
       <c r="M4" t="s" s="62">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N4" t="s" s="63">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O4" s="64">
         <v>80</v>
       </c>
       <c r="P4" t="s" s="65">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q4" t="s" s="66">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="R4" s="67">
         <v>45</v>
       </c>
       <c r="S4" t="s" s="68">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="T4" t="s" s="69">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="U4" s="70">
         <v>137</v>
       </c>
       <c r="V4" t="s" s="71">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="W4" t="s" s="72">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="X4" s="73">
         <v>60</v>
@@ -5839,73 +5965,73 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s" s="50">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s" s="51">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C5" s="52">
         <v>60</v>
       </c>
       <c r="D5" t="s" s="53">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E5" t="s" s="54">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F5" s="55">
         <v>55</v>
       </c>
       <c r="G5" t="s" s="56">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H5" t="s" s="57">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I5" s="58">
         <v>31</v>
       </c>
       <c r="J5" t="s" s="59">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K5" t="s" s="60">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L5" s="61">
         <v>61</v>
       </c>
       <c r="M5" t="s" s="62">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N5" t="s" s="63">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O5" s="64">
         <v>63</v>
       </c>
       <c r="P5" t="s" s="65">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q5" t="s" s="66">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R5" s="67">
         <v>25</v>
       </c>
       <c r="S5" t="s" s="68">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="T5" t="s" s="69">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="U5" s="70">
         <v>36</v>
       </c>
       <c r="V5" t="s" s="71">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="W5" t="s" s="72">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="X5" s="73">
         <v>68</v>
@@ -5913,73 +6039,73 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s" s="50">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s" s="51">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C6" s="52">
         <v>27</v>
       </c>
       <c r="D6" t="s" s="53">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E6" t="s" s="54">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F6" s="55">
         <v>65</v>
       </c>
       <c r="G6" t="s" s="56">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H6" t="s" s="57">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I6" s="58">
         <v>78</v>
       </c>
       <c r="J6" t="s" s="59">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K6" t="s" s="60">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L6" s="61">
         <v>47</v>
       </c>
       <c r="M6" t="s" s="62">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N6" t="s" s="63">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O6" s="64">
         <v>51</v>
       </c>
       <c r="P6" t="s" s="65">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q6" t="s" s="66">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R6" s="67">
         <v>29</v>
       </c>
       <c r="S6" t="s" s="68">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="T6" t="s" s="69">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="U6" s="70">
         <v>33</v>
       </c>
       <c r="V6" t="s" s="71">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="W6" t="s" s="72">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="X6" s="73">
         <v>16</v>
@@ -5987,73 +6113,73 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s" s="50">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s" s="51">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C7" s="52">
         <v>20</v>
       </c>
       <c r="D7" t="s" s="53">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E7" t="s" s="54">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F7" s="55">
         <v>45</v>
       </c>
       <c r="G7" t="s" s="56">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H7" t="s" s="57">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I7" s="58">
         <v>71</v>
       </c>
       <c r="J7" t="s" s="59">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K7" t="s" s="60">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L7" s="61">
         <v>18</v>
       </c>
       <c r="M7" t="s" s="62">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N7" t="s" s="63">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O7" s="64">
         <v>61</v>
       </c>
       <c r="P7" t="s" s="65">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q7" t="s" s="66">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="R7" s="67">
         <v>30</v>
       </c>
       <c r="S7" t="s" s="68">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T7" t="s" s="69">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="U7" s="70">
         <v>31</v>
       </c>
       <c r="V7" t="s" s="71">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="W7" t="s" s="72">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="X7" s="73">
         <v>20</v>
@@ -6061,73 +6187,73 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s" s="50">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s" s="51">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C8" s="52">
         <v>16</v>
       </c>
       <c r="D8" t="s" s="53">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E8" t="s" s="54">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F8" s="55">
         <v>32</v>
       </c>
       <c r="G8" t="s" s="56">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H8" t="s" s="57">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I8" s="58">
         <v>66</v>
       </c>
       <c r="J8" t="s" s="59">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K8" t="s" s="60">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L8" s="61">
         <v>35</v>
       </c>
       <c r="M8" t="s" s="62">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N8" t="s" s="63">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O8" s="64">
         <v>29</v>
       </c>
       <c r="P8" t="s" s="65">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q8" t="s" s="66">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R8" s="67">
         <v>43</v>
       </c>
       <c r="S8" t="s" s="68">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="T8" t="s" s="69">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="U8" s="70">
         <v>19</v>
       </c>
       <c r="V8" t="s" s="71">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="W8" t="s" s="72">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="X8" s="73">
         <v>29</v>
@@ -6135,73 +6261,73 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s" s="50">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s" s="51">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C9" s="52">
         <v>11</v>
       </c>
       <c r="D9" t="s" s="53">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E9" t="s" s="54">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F9" s="55">
         <v>21</v>
       </c>
       <c r="G9" t="s" s="56">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H9" t="s" s="57">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I9" s="58">
         <v>56</v>
       </c>
       <c r="J9" t="s" s="59">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K9" t="s" s="60">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L9" s="61">
         <v>28</v>
       </c>
       <c r="M9" t="s" s="62">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N9" t="s" s="63">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O9" s="64">
         <v>15</v>
       </c>
       <c r="P9" t="s" s="65">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q9" t="s" s="66">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="R9" s="67">
         <v>22</v>
       </c>
       <c r="S9" t="s" s="68">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="T9" t="s" s="69">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="U9" s="70">
         <v>3</v>
       </c>
       <c r="V9" t="s" s="71">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="W9" t="s" s="72">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="X9" s="73">
         <v>19</v>
@@ -6209,73 +6335,73 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s" s="50">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s" s="51">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C10" s="52">
         <v>4</v>
       </c>
       <c r="D10" t="s" s="53">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E10" t="s" s="54">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F10" s="55">
         <v>1</v>
       </c>
       <c r="G10" t="s" s="56">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H10" t="s" s="57">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I10" s="58">
         <v>13</v>
       </c>
       <c r="J10" t="s" s="59">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K10" t="s" s="60">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L10" s="61">
         <v>30</v>
       </c>
       <c r="M10" t="s" s="62">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N10" t="s" s="63">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O10" s="64">
         <v>15</v>
       </c>
       <c r="P10" t="s" s="65">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q10" t="s" s="66">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R10" s="67">
         <v>22</v>
       </c>
       <c r="S10" t="s" s="68">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="T10" t="s" s="69">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="U10" s="70">
         <v>16</v>
       </c>
       <c r="V10" t="s" s="71">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="W10" t="s" s="72">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="X10" s="73">
         <v>17</v>
@@ -6283,73 +6409,73 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s" s="50">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B11" t="s" s="51">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C11" s="52">
         <v>11</v>
       </c>
       <c r="D11" t="s" s="53">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s" s="54">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F11" s="55">
         <v>1</v>
       </c>
       <c r="G11" t="s" s="56">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H11" t="s" s="57">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I11" s="58">
         <v>15</v>
       </c>
       <c r="J11" t="s" s="59">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K11" t="s" s="60">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L11" s="61">
         <v>30</v>
       </c>
       <c r="M11" t="s" s="62">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N11" t="s" s="63">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O11" s="64">
         <v>12</v>
       </c>
       <c r="P11" t="s" s="65">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q11" t="s" s="66">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="R11" s="67">
         <v>27</v>
       </c>
       <c r="S11" t="s" s="68">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="T11" t="s" s="69">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="U11" s="70">
         <v>25</v>
       </c>
       <c r="V11" t="s" s="71">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W11" t="s" s="72">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="X11" s="73">
         <v>1</v>
@@ -6357,73 +6483,73 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s" s="50">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s" s="51">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C12" s="52">
         <v>17</v>
       </c>
       <c r="D12" t="s" s="53">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E12" t="s" s="54">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F12" s="55">
         <v>44</v>
       </c>
       <c r="G12" t="s" s="56">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H12" t="s" s="57">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I12" s="58">
         <v>23</v>
       </c>
       <c r="J12" t="s" s="59">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K12" t="s" s="60">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L12" s="61">
         <v>5</v>
       </c>
       <c r="M12" t="s" s="62">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N12" t="s" s="63">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O12" s="64">
         <v>7</v>
       </c>
       <c r="P12" t="s" s="65">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q12" t="s" s="66">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R12" s="67">
         <v>16</v>
       </c>
       <c r="S12" t="s" s="68">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="T12" t="s" s="69">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="U12" s="70">
         <v>15</v>
       </c>
       <c r="V12" t="s" s="71">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="W12" t="s" s="72">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="X12" s="73">
         <v>1</v>
@@ -6431,73 +6557,73 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" t="s" s="50">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s" s="51">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C13" s="52">
         <v>16</v>
       </c>
       <c r="D13" t="s" s="53">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E13" t="s" s="54">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F13" s="55">
         <v>26</v>
       </c>
       <c r="G13" t="s" s="56">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H13" t="s" s="57">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I13" s="58">
         <v>19</v>
       </c>
       <c r="J13" t="s" s="59">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K13" t="s" s="60">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L13" s="61">
         <v>10</v>
       </c>
       <c r="M13" t="s" s="62">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N13" t="s" s="63">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O13" s="64">
         <v>20</v>
       </c>
       <c r="P13" t="s" s="65">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q13" t="s" s="66">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="R13" s="67">
         <v>40</v>
       </c>
       <c r="S13" t="s" s="68">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="T13" t="s" s="69">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="U13" s="70">
         <v>15</v>
       </c>
       <c r="V13" t="s" s="71">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="W13" t="s" s="72">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="X13" s="73">
         <v>12</v>
@@ -6505,73 +6631,73 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s" s="50">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s" s="51">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C14" s="52">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="53">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E14" t="s" s="54">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F14" s="55">
         <v>10</v>
       </c>
       <c r="G14" t="s" s="56">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H14" t="s" s="57">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I14" s="58">
         <v>9</v>
       </c>
       <c r="J14" t="s" s="59">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K14" t="s" s="60">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L14" s="61">
         <v>36</v>
       </c>
       <c r="M14" t="s" s="62">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N14" t="s" s="63">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O14" s="64">
         <v>12</v>
       </c>
       <c r="P14" t="s" s="65">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q14" t="s" s="66">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="R14" s="67">
         <v>20</v>
       </c>
       <c r="S14" t="s" s="68">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="T14" t="s" s="69">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="U14" s="70">
         <v>11</v>
       </c>
       <c r="V14" t="s" s="71">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="W14" t="s" s="72">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="X14" s="73">
         <v>12</v>
@@ -6579,73 +6705,73 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s" s="50">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s" s="51">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C15" s="52">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="53">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E15" t="s" s="54">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F15" s="55">
         <v>13</v>
       </c>
       <c r="G15" t="s" s="56">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H15" t="s" s="57">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I15" s="58">
         <v>19</v>
       </c>
       <c r="J15" t="s" s="59">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K15" t="s" s="60">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L15" s="61">
         <v>20</v>
       </c>
       <c r="M15" t="s" s="62">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N15" t="s" s="63">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O15" s="64">
         <v>10</v>
       </c>
       <c r="P15" t="s" s="65">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q15" t="s" s="66">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="R15" s="67">
         <v>16</v>
       </c>
       <c r="S15" t="s" s="68">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="T15" t="s" s="69">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="U15" s="70">
         <v>33</v>
       </c>
       <c r="V15" t="s" s="71">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="W15" t="s" s="72">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="X15" s="73">
         <v>5</v>
@@ -6653,73 +6779,73 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s" s="50">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B16" t="s" s="51">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C16" s="52">
         <v>13</v>
       </c>
       <c r="D16" t="s" s="53">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E16" t="s" s="54">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F16" s="55">
         <v>16</v>
       </c>
       <c r="G16" t="s" s="56">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H16" t="s" s="57">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I16" s="58">
         <v>24</v>
       </c>
       <c r="J16" t="s" s="59">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K16" t="s" s="60">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L16" s="61">
         <v>25</v>
       </c>
       <c r="M16" t="s" s="62">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N16" t="s" s="63">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O16" s="64">
         <v>20</v>
       </c>
       <c r="P16" t="s" s="65">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q16" t="s" s="66">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R16" s="67">
         <v>27</v>
       </c>
       <c r="S16" t="s" s="68">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T16" t="s" s="69">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="U16" s="70">
         <v>10</v>
       </c>
       <c r="V16" t="s" s="71">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="W16" t="s" s="72">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="X16" s="73">
         <v>12</v>
@@ -6727,73 +6853,73 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" t="s" s="50">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B17" t="s" s="51">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C17" s="52">
         <v>7</v>
       </c>
       <c r="D17" t="s" s="53">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E17" t="s" s="54">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F17" s="55">
         <v>23</v>
       </c>
       <c r="G17" t="s" s="56">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H17" t="s" s="57">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I17" s="58">
         <v>20</v>
       </c>
       <c r="J17" t="s" s="59">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K17" t="s" s="60">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L17" s="61">
         <v>17</v>
       </c>
       <c r="M17" t="s" s="62">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N17" t="s" s="63">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O17" s="64">
         <v>15</v>
       </c>
       <c r="P17" t="s" s="65">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q17" t="s" s="66">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R17" s="67">
         <v>25</v>
       </c>
       <c r="S17" t="s" s="68">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="T17" t="s" s="69">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="U17" s="70">
         <v>37</v>
       </c>
       <c r="V17" t="s" s="71">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="W17" t="s" s="72">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="X17" s="73">
         <v>10</v>
@@ -6801,73 +6927,73 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" t="s" s="50">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B18" t="s" s="51">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C18" s="52">
         <v>6</v>
       </c>
       <c r="D18" t="s" s="53">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E18" t="s" s="54">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F18" s="55">
         <v>20</v>
       </c>
       <c r="G18" t="s" s="56">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H18" t="s" s="57">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I18" s="58">
         <v>15</v>
       </c>
       <c r="J18" t="s" s="59">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K18" t="s" s="60">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L18" s="61">
         <v>16</v>
       </c>
       <c r="M18" t="s" s="62">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N18" t="s" s="63">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O18" s="64">
         <v>19</v>
       </c>
       <c r="P18" t="s" s="65">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q18" t="s" s="66">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="R18" s="67">
         <v>26</v>
       </c>
       <c r="S18" t="s" s="68">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="T18" t="s" s="69">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="U18" s="70">
         <v>23</v>
       </c>
       <c r="V18" t="s" s="71">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="W18" t="s" s="72">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="X18" s="73">
         <v>20</v>
@@ -6875,73 +7001,73 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" t="s" s="50">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B19" t="s" s="51">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C19" s="52">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="53">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E19" t="s" s="54">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F19" s="55">
         <v>30</v>
       </c>
       <c r="G19" t="s" s="56">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H19" t="s" s="57">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I19" s="58">
         <v>14</v>
       </c>
       <c r="J19" t="s" s="59">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K19" t="s" s="60">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L19" s="61">
         <v>20</v>
       </c>
       <c r="M19" t="s" s="62">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N19" t="s" s="63">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O19" s="64">
         <v>7</v>
       </c>
       <c r="P19" t="s" s="65">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q19" t="s" s="66">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R19" s="67">
         <v>19</v>
       </c>
       <c r="S19" t="s" s="68">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="T19" t="s" s="69">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="U19" s="70">
         <v>6</v>
       </c>
       <c r="V19" t="s" s="71">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="W19" t="s" s="72">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="X19" s="73">
         <v>24</v>
@@ -6949,73 +7075,73 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" t="s" s="50">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B20" t="s" s="51">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C20" s="52">
         <v>20</v>
       </c>
       <c r="D20" t="s" s="53">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E20" t="s" s="54">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F20" s="55">
         <v>17</v>
       </c>
       <c r="G20" t="s" s="56">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H20" t="s" s="57">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I20" s="58">
         <v>23</v>
       </c>
       <c r="J20" t="s" s="59">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K20" t="s" s="60">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L20" s="61">
         <v>11</v>
       </c>
       <c r="M20" t="s" s="62">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N20" t="s" s="63">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O20" s="64">
         <v>11</v>
       </c>
       <c r="P20" t="s" s="65">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q20" t="s" s="66">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R20" s="67">
         <v>40</v>
       </c>
       <c r="S20" t="s" s="68">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="T20" t="s" s="69">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="U20" s="70">
         <v>10</v>
       </c>
       <c r="V20" t="s" s="71">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="W20" t="s" s="72">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="X20" s="73">
         <v>16</v>
@@ -7023,73 +7149,73 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" t="s" s="50">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B21" t="s" s="51">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C21" s="52">
         <v>22</v>
       </c>
       <c r="D21" t="s" s="53">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E21" t="s" s="54">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F21" s="55">
         <v>32</v>
       </c>
       <c r="G21" t="s" s="56">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H21" t="s" s="57">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I21" s="58">
         <v>20</v>
       </c>
       <c r="J21" t="s" s="59">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K21" t="s" s="60">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L21" s="61">
         <v>50</v>
       </c>
       <c r="M21" t="s" s="62">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N21" t="s" s="63">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O21" s="64">
         <v>10</v>
       </c>
       <c r="P21" t="s" s="65">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q21" t="s" s="66">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R21" s="67">
         <v>1</v>
       </c>
       <c r="S21" t="s" s="68">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="T21" t="s" s="69">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="U21" s="70">
         <v>14</v>
       </c>
       <c r="V21" t="s" s="71">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W21" t="s" s="72">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="X21" s="73">
         <v>10</v>
@@ -7097,73 +7223,73 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" t="s" s="50">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B22" t="s" s="51">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C22" s="52">
         <v>10</v>
       </c>
       <c r="D22" t="s" s="53">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E22" t="s" s="54">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F22" s="55">
         <v>14</v>
       </c>
       <c r="G22" t="s" s="56">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H22" t="s" s="57">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I22" s="58">
         <v>7</v>
       </c>
       <c r="J22" t="s" s="59">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K22" t="s" s="60">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L22" s="61">
         <v>17</v>
       </c>
       <c r="M22" t="s" s="62">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N22" t="s" s="63">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O22" s="64">
         <v>18</v>
       </c>
       <c r="P22" t="s" s="65">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q22" t="s" s="66">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R22" s="67">
         <v>1</v>
       </c>
       <c r="S22" t="s" s="68">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="T22" t="s" s="69">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="U22" s="70">
         <v>5</v>
       </c>
       <c r="V22" t="s" s="71">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="W22" t="s" s="72">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X22" s="73">
         <v>10</v>
@@ -7171,73 +7297,73 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" t="s" s="50">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B23" t="s" s="51">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C23" s="52">
         <v>1</v>
       </c>
       <c r="D23" t="s" s="53">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E23" t="s" s="54">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F23" s="55">
         <v>32</v>
       </c>
       <c r="G23" t="s" s="56">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H23" t="s" s="57">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I23" s="58">
         <v>6</v>
       </c>
       <c r="J23" t="s" s="59">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K23" t="s" s="60">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L23" s="61">
         <v>14</v>
       </c>
       <c r="M23" t="s" s="62">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N23" t="s" s="63">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O23" s="64">
         <v>1</v>
       </c>
       <c r="P23" t="s" s="65">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q23" t="s" s="66">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="R23" s="67">
         <v>4</v>
       </c>
       <c r="S23" t="s" s="68">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="T23" t="s" s="69">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="U23" s="70">
         <v>1</v>
       </c>
       <c r="V23" t="s" s="71">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="W23" t="s" s="72">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="X23" s="73">
         <v>30</v>
@@ -7245,73 +7371,73 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" t="s" s="50">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B24" t="s" s="51">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C24" s="52">
         <v>7</v>
       </c>
       <c r="D24" t="s" s="53">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E24" t="s" s="54">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F24" s="55">
         <v>7</v>
       </c>
       <c r="G24" t="s" s="56">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H24" t="s" s="57">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I24" s="58">
         <v>1</v>
       </c>
       <c r="J24" t="s" s="59">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K24" t="s" s="60">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L24" s="61">
         <v>10</v>
       </c>
       <c r="M24" t="s" s="62">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N24" t="s" s="63">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O24" s="64">
         <v>1</v>
       </c>
       <c r="P24" t="s" s="65">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q24" t="s" s="66">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="R24" s="67">
         <v>8</v>
       </c>
       <c r="S24" t="s" s="68">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="T24" t="s" s="69">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="U24" s="70">
         <v>26</v>
       </c>
       <c r="V24" t="s" s="71">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="W24" t="s" s="72">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="X24" s="73">
         <v>23</v>
@@ -7319,73 +7445,73 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" t="s" s="50">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B25" t="s" s="51">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C25" s="52">
         <v>11</v>
       </c>
       <c r="D25" t="s" s="53">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E25" t="s" s="54">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F25" s="55">
         <v>6</v>
       </c>
       <c r="G25" t="s" s="56">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H25" t="s" s="57">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I25" s="58">
         <v>14</v>
       </c>
       <c r="J25" t="s" s="59">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K25" t="s" s="60">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L25" s="61">
         <v>1</v>
       </c>
       <c r="M25" t="s" s="62">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N25" t="s" s="63">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O25" s="64">
         <v>7</v>
       </c>
       <c r="P25" t="s" s="65">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q25" t="s" s="66">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R25" s="67">
         <v>8</v>
       </c>
       <c r="S25" t="s" s="68">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="T25" t="s" s="69">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="U25" s="70">
         <v>11</v>
       </c>
       <c r="V25" t="s" s="71">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="W25" t="s" s="72">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="X25" s="73">
         <v>16</v>
@@ -7393,73 +7519,73 @@
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" t="s" s="50">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B26" t="s" s="51">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C26" s="52">
         <v>6</v>
       </c>
       <c r="D26" t="s" s="53">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E26" t="s" s="54">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F26" s="55">
         <v>9</v>
       </c>
       <c r="G26" t="s" s="56">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H26" t="s" s="57">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I26" s="58">
         <v>1</v>
       </c>
       <c r="J26" t="s" s="59">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K26" t="s" s="60">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L26" s="61">
         <v>1</v>
       </c>
       <c r="M26" t="s" s="62">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N26" t="s" s="63">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O26" s="64">
         <v>28</v>
       </c>
       <c r="P26" t="s" s="65">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q26" t="s" s="66">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R26" s="67">
         <v>22</v>
       </c>
       <c r="S26" t="s" s="68">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="T26" t="s" s="69">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="U26" s="70">
         <v>19</v>
       </c>
       <c r="V26" t="s" s="71">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="W26" t="s" s="72">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="X26" s="73">
         <v>19</v>
@@ -7467,73 +7593,73 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" t="s" s="50">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B27" t="s" s="51">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C27" s="52">
         <v>3</v>
       </c>
       <c r="D27" t="s" s="53">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E27" t="s" s="54">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F27" s="55">
         <v>4</v>
       </c>
       <c r="G27" t="s" s="56">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H27" t="s" s="57">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I27" s="58">
         <v>5</v>
       </c>
       <c r="J27" t="s" s="59">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K27" t="s" s="60">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L27" s="61">
         <v>8</v>
       </c>
       <c r="M27" t="s" s="62">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="N27" t="s" s="63">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O27" s="64">
         <v>19</v>
       </c>
       <c r="P27" t="s" s="65">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q27" t="s" s="66">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R27" s="67">
         <v>3</v>
       </c>
       <c r="S27" t="s" s="68">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="T27" t="s" s="69">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="U27" s="70">
         <v>7</v>
       </c>
       <c r="V27" t="s" s="71">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="W27" t="s" s="72">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="X27" s="73">
         <v>7</v>
@@ -7541,10 +7667,10 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" t="s" s="50">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B28" t="s" s="51">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C28" s="52">
         <v>8</v>
@@ -7553,28 +7679,28 @@
       <c r="E28" s="75"/>
       <c r="F28" s="76"/>
       <c r="G28" t="s" s="56">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H28" t="s" s="57">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="I28" s="58">
         <v>13</v>
       </c>
       <c r="J28" t="s" s="59">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K28" t="s" s="60">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L28" s="61">
         <v>9</v>
       </c>
       <c r="M28" t="s" s="62">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N28" t="s" s="63">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O28" s="64">
         <v>17</v>
@@ -7586,10 +7712,10 @@
       <c r="T28" s="81"/>
       <c r="U28" s="82"/>
       <c r="V28" t="s" s="71">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W28" t="s" s="72">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X28" s="73">
         <v>6</v>
@@ -7603,19 +7729,19 @@
       <c r="E29" s="75"/>
       <c r="F29" s="76"/>
       <c r="G29" t="s" s="56">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H29" t="s" s="57">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I29" s="58">
         <v>5</v>
       </c>
       <c r="J29" t="s" s="59">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K29" t="s" s="60">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L29" s="61">
         <v>5</v>
@@ -7630,10 +7756,10 @@
       <c r="T29" s="81"/>
       <c r="U29" s="82"/>
       <c r="V29" t="s" s="71">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="W29" t="s" s="72">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="X29" s="73">
         <v>7</v>
@@ -7662,10 +7788,10 @@
       <c r="T30" s="81"/>
       <c r="U30" s="82"/>
       <c r="V30" t="s" s="71">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="W30" t="s" s="72">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="X30" s="73">
         <v>10</v>
@@ -7694,10 +7820,10 @@
       <c r="T31" s="81"/>
       <c r="U31" s="82"/>
       <c r="V31" t="s" s="71">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="W31" t="s" s="72">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X31" s="73">
         <v>6</v>
@@ -7726,10 +7852,10 @@
       <c r="T32" s="81"/>
       <c r="U32" s="82"/>
       <c r="V32" t="s" s="71">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="W32" t="s" s="72">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="X32" s="73">
         <v>12</v>
